--- a/excel.xlsx
+++ b/excel.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:E9"/>
+  <dimension ref="E7:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,6 +371,26 @@
       <c r="E9">
         <f>SUM(E7:E8)</f>
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>pasiak</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:E16"/>
+  <dimension ref="E7:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,6 +399,11 @@
     <row r="16" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="E7:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,8 +369,7 @@
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E9">
-        <f>SUM(E7:E8)</f>
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
